--- a/JSOcean/JS_Practice_Tracker.xlsx
+++ b/JSOcean/JS_Practice_Tracker.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\JSOcean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C742DE-0907-4580-AFB6-D3DF87405B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399DEB3-837A-40EE-A41B-F7330D80CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Program" sheetId="1" r:id="rId1"/>
-    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
+    <sheet name="JS_Problems_Topics" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Write a program to build Anagram</t>
   </si>
@@ -106,9 +105,6 @@
     <t>Difference between map and forEach</t>
   </si>
   <si>
-    <t>ES6 Features</t>
-  </si>
-  <si>
     <t>Execution Order</t>
   </si>
   <si>
@@ -148,12 +144,6 @@
     <t>find Maximum product from given array</t>
   </si>
   <si>
-    <t>memoization</t>
-  </si>
-  <si>
-    <t>once function</t>
-  </si>
-  <si>
     <t>Validate palindrome</t>
   </si>
   <si>
@@ -178,9 +168,6 @@
     <t>PrototypalInheritance</t>
   </si>
   <si>
-    <t>PureImpure Function</t>
-  </si>
-  <si>
     <t>Problems on Reduce method</t>
   </si>
   <si>
@@ -197,6 +184,12 @@
   </si>
   <si>
     <t>While Loop Examples</t>
+  </si>
+  <si>
+    <t>Call Apply Bind</t>
+  </si>
+  <si>
+    <t>once function (revisit for design patterns)</t>
   </si>
 </sst>
 </file>
@@ -513,318 +506,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8BDF3F-1972-4720-8E6E-B4093D81C8CC}">
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="124" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E7E17F-797A-493F-B268-4327882C7187}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
